--- a/scenario_description/diets_generator.xlsx
+++ b/scenario_description/diets_generator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claudia.rodes\Documents\GitHub\gcam-core\scenario_description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFCAB5C-F79B-4C8C-A442-5636A83900E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5F83D0-0314-4E04-8E0B-538957DA820C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1910" yWindow="570" windowWidth="17290" windowHeight="10470" tabRatio="796" activeTab="5" xr2:uid="{C51BFE77-6F4E-4E4D-8D1B-23306E140789}"/>
+    <workbookView xWindow="1280" yWindow="930" windowWidth="17290" windowHeight="10470" tabRatio="796" activeTab="5" xr2:uid="{C51BFE77-6F4E-4E4D-8D1B-23306E140789}"/>
   </bookViews>
   <sheets>
     <sheet name="beef-poultry" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="279">
   <si>
     <t>USA</t>
   </si>
@@ -1263,9 +1263,6 @@
     <t>0, end_year = 2055 pels linears</t>
   </si>
   <si>
-    <t>super!</t>
-  </si>
-  <si>
     <t>ref</t>
   </si>
   <si>
@@ -1275,7 +1272,37 @@
     <t>diets_clean2</t>
   </si>
   <si>
-    <t>diets_clean</t>
+    <t>trade.adj19</t>
+  </si>
+  <si>
+    <t>0.5, end_year = 2055 pels linears</t>
+  </si>
+  <si>
+    <t>trade.adj20</t>
+  </si>
+  <si>
+    <t>0.1, end_year = 2055 pels linears</t>
+  </si>
+  <si>
+    <t>més imp q dom tot i q la diferència s'ha reduït respecte del ref.scen --&gt; anem per bon camí!</t>
+  </si>
+  <si>
+    <t>imp baixen, però tampoc massa</t>
+  </si>
+  <si>
+    <t>trade.adj21</t>
+  </si>
+  <si>
+    <t>0.05, end_year = 2055 pels linears</t>
+  </si>
+  <si>
+    <t>0.005, end_year = 2055 pels linears</t>
+  </si>
+  <si>
+    <t>aprox redueix a la meitat els imports :)</t>
+  </si>
+  <si>
+    <t>super! Disminueix moltíssim els imports</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1307,6 +1334,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,7 +1356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1340,6 +1373,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9238,10 +9276,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE99374-1621-4C04-8842-47590828CD2C}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9255,7 +9293,7 @@
         <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>207</v>
@@ -9269,7 +9307,7 @@
         <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>209</v>
@@ -9283,7 +9321,7 @@
         <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -9297,7 +9335,7 @@
         <v>211</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>218</v>
@@ -9311,7 +9349,7 @@
         <v>215</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>216</v>
@@ -9325,46 +9363,102 @@
         <v>241</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>242</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="B8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="B15" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C10" s="7"/>
+      <c r="C16" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
